--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11121"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanliao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80E98C-21E4-D849-946E-79A0B8C42BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{2162504D-86E5-FE4E-A872-61C58E4BEAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
   <si>
     <t>Time</t>
   </si>
@@ -626,13 +639,16 @@
   <si>
     <t>晚餐自行處理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏正忠、廖奕翔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1011,19 +1027,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.34375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="62.2734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -1063,7 +1079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1132,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1155,7 +1171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1224,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1270,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1287,13 +1303,13 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1316,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1339,7 +1355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1362,7 +1378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1385,7 +1401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1431,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1454,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -1477,7 +1493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1500,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -1523,7 +1539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1546,7 +1562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -1569,7 +1585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -1592,7 +1608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -1615,7 +1631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1661,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1684,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -1707,7 +1723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -1730,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -1753,7 +1769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -1799,7 +1815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -1822,7 +1838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -1845,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -1868,7 +1884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -1891,7 +1907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -1914,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -1937,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -1964,7 +1980,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:G13 A16:G16 A15:C15 E15:G15 A18:G21 A17:C17 E17:G17 A29:G31 A28:C28 E28:G28 A1:G1 A14:C14 E14:G14 A23:G23 A22:C22 E22:G22 A34:G40 A32:C32 E32:G32 A41:C41 E41:G41 A25:G27 A24:F24 A33:F33" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:G11 A16:G16 A15:C15 E15:G15 A18:G21 A17:C17 E17:G17 A29:G31 A28:C28 E28:G28 A1:G1 A14:C14 E14:G14 A23:G23 A22:C22 E22:G22 A34:G40 A32:C32 E32:G32 A41:C41 E41:G41 A25:G27 A24:F24 A33:F33 A13:G13 A12:E12 G12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11121"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanliao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{2162504D-86E5-FE4E-A872-61C58E4BEAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C95975-4B9D-5441-8803-475F414F6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="211">
   <si>
     <t>Time</t>
   </si>
@@ -107,9 +94,6 @@
     <t>透過概念驗證看到 Agentic AI 的潛力，現在準備建立能支援組織所有 AI 應用的基礎架構。本課程將展示如何建立架構完善的基礎，整合模型存取、編排工作流程、代理、工具和領域資料管道，同時保持企業級的可觀測性和治理控制。</t>
   </si>
   <si>
-    <t>顏正忠、許顗民</t>
-  </si>
-  <si>
     <t>12/1 (一) 11:00-12:00</t>
   </si>
   <si>
@@ -284,12 +268,6 @@
     <t>探索明日科技。與 AWS 專家會面交流想法，測試 AWS 合作夥伴的最新解決方案，並與同行連結。在 AWS Village 體驗生成式 AI、資料分析、遷移現代化和雲端基礎解決方案的實作演示。</t>
   </si>
   <si>
-    <t>包蕙綺、林志叡、顏正忠、許顗民</t>
-  </si>
-  <si>
-    <t>12/2 (二) 12:00-13:00</t>
-  </si>
-  <si>
     <t>AIM282-S</t>
   </si>
   <si>
@@ -437,9 +415,6 @@
     <t>廖奕翔、李蓓雯、顏正忠</t>
   </si>
   <si>
-    <t>12/3 (三) 14:30-15:30</t>
-  </si>
-  <si>
     <t>INV209</t>
   </si>
   <si>
@@ -501,9 +476,6 @@
   </si>
   <si>
     <t>探索 AWS 網路如何提供五個關鍵成果：可用性、效能、可擴展性、敏捷性和成本。了解資料中心技術的持續基礎設施進步，以及我們如何整合 GenAI 擴展旅程的經驗。作為全球頂尖網路設備製造商之一，我們已將這些創新應用於所有工作負載。</t>
-  </si>
-  <si>
-    <t>廖奕翔、李蓓雯、林志叡、顏正忠</t>
   </si>
   <si>
     <t>12/4 (四) 11:00-12:00</t>
@@ -641,14 +613,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顏正忠、廖奕翔</t>
+    <t>顏正忠、廖奕翔、林志叡、許元銘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/2 (二) 12:00-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/2 (二)  13:00 - 14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIM424</t>
+  </si>
+  <si>
+    <t>Scaling foundation model inference on Amazon SageMaker AI</t>
+  </si>
+  <si>
+    <t>Mandalay Bay</t>
+  </si>
+  <si>
+    <t>包蕙綺、林志叡、顏正忠、許顗民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏正忠、許顗民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIM2204</t>
+  </si>
+  <si>
+    <t>Bridging from POC to production: An intro to Amazon Bedrock AgentCore</t>
+  </si>
+  <si>
+    <t>AIM345-S</t>
+  </si>
+  <si>
+    <t>12/3 (三) 14:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/3 (三)  17:30 - 18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context engineering and building better agents</t>
+  </si>
+  <si>
+    <t>許顗民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖奕翔、許顗民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖奕翔、李蓓雯、林志叡、顏正忠、許顗民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1025,21 +1055,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.34375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
-    <col min="4" max="4" width="62.2734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.31640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,24 +1093,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1142,142 +1173,142 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1286,44 +1317,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1332,655 +1363,706 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>196</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
         <v>68</v>
       </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
         <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:G11 A16:G16 A15:C15 E15:G15 A18:G21 A17:C17 E17:G17 A29:G31 A28:C28 E28:G28 A1:G1 A14:C14 E14:G14 A23:G23 A22:C22 E22:G22 A34:G40 A32:C32 E32:G32 A41:C41 E41:G41 A25:G27 A24:F24 A33:F33 A13:G13 A12:E12 G12" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:G4 A16:G16 A22:G23 A17:C17 E17 A33:G34 A30:C30 E30:G30 A1:G1 A14:C15 E14:G15 A25:G25 A24:C24 E24:G24 A38:G42 A35:C35 E35:G35 A44:C44 E44:G44 A27:G29 A26:F26 A36:E36 A13:G13 A12:E12 G12 B18:G18 G17 A6:G11 A5:E5 G5 A20:G20 B31:G31 A37:E37 G37 A43:E43 G43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>